--- a/data/Auto_Model.xlsx
+++ b/data/Auto_Model.xlsx
@@ -1,13 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukindiabc-my.sharepoint.com/personal/manish_verma_ukibc_com/Documents/Intelligence Unit/PRO BONO/Data Visualisation and Website Integration/Economic Indices/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="60" documentId="11_F25DC773A252ABDACC1048ED319961C25BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C81C4C23-97F0-458E-A9FC-70FF96DCE69D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Passenger Vehicles" sheetId="1" r:id="rId1"/>
+    <sheet name="Light Commercial Vehicles" sheetId="2" r:id="rId2"/>
+    <sheet name="Medium Commercial Vehicles" sheetId="3" r:id="rId3"/>
+    <sheet name="Heavy Commercial Vehicles" sheetId="4" r:id="rId4"/>
+    <sheet name="Three Wheelers and Quadricycles" sheetId="5" r:id="rId5"/>
+    <sheet name="Two Wheelers" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,8 +29,31 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="6">
+  <si>
+    <t>Quarter</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Predicted</t>
+  </si>
+  <si>
+    <t>Q3 2024-25</t>
+  </si>
+  <si>
+    <t>Q4 2024-25</t>
+  </si>
+  <si>
+    <t>Q1 2025-26</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,8 +83,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +365,340 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1181070</v>
+      </c>
+      <c r="C2">
+        <v>1240254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1231492</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1188054</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1224958</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A2FD491-E5F4-4BCD-B01A-E5EFEF205CFB}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>171178</v>
+      </c>
+      <c r="C2">
+        <v>164776</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>224590</v>
+      </c>
+      <c r="C3" s="1">
+        <v>173756</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>172421</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4D5217-73E5-44D9-8234-6D42474DE8E8}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>38040</v>
+      </c>
+      <c r="C2">
+        <v>37449</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>53902</v>
+      </c>
+      <c r="C3" s="1">
+        <v>38613</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>45158</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B11E58-115F-482F-B2AE-3495355A482A}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>171178</v>
+      </c>
+      <c r="C2">
+        <v>172266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>170688</v>
+      </c>
+      <c r="C3" s="1">
+        <v>173756</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>192947</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1444E28C-0DB4-44E1-86B6-B6AD4D66159D}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>307026</v>
+      </c>
+      <c r="C2">
+        <v>284419</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>313172</v>
+      </c>
+      <c r="C3" s="1">
+        <v>283004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>281169</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{970ACBAB-9185-4E00-85B4-D1D41AB80110}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5723519</v>
+      </c>
+      <c r="C2">
+        <v>5786032</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5825152</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5859013</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>6023458</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/Auto_Model.xlsx
+++ b/data/Auto_Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukindiabc-my.sharepoint.com/personal/manish_verma_ukibc_com/Documents/Intelligence Unit/PRO BONO/Data Visualisation and Website Integration/Economic Indices/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="11_F25DC773A252ABDACC1048ED319961C25BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C81C4C23-97F0-458E-A9FC-70FF96DCE69D}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="11_F25DC773A252ABDACC1048ED319961C25BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{663E7BC8-BCFC-4439-A50F-3D7861C1317E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Passenger Vehicles" sheetId="1" r:id="rId1"/>
@@ -83,9 +83,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -368,8 +369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,11 +652,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{970ACBAB-9185-4E00-85B4-D1D41AB80110}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -675,7 +679,7 @@
       <c r="B2" s="1">
         <v>5723519</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>5786032</v>
       </c>
     </row>

--- a/data/Auto_Model.xlsx
+++ b/data/Auto_Model.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukindiabc-my.sharepoint.com/personal/manish_verma_ukibc_com/Documents/Intelligence Unit/PRO BONO/Data Visualisation and Website Integration/Economic Indices/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="11_F25DC773A252ABDACC1048ED319961C25BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{663E7BC8-BCFC-4439-A50F-3D7861C1317E}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="11_F25DC773A252ABDACC1048ED319961C25BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2836EBB8-3069-43B7-B153-DDF1E00D8C3E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -433,6 +433,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -489,6 +492,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -545,6 +551,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -601,6 +610,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -653,11 +665,12 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
